--- a/Stepper Motors.xlsx
+++ b/Stepper Motors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="2055" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Steps per MM" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="InitialHeight">'[1]Measured Offsets'!$B$1</definedName>
     <definedName name="ProbeLength">'[1]Find Delta Radius'!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Motor</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Updated Steps/mm</t>
+  </si>
+  <si>
+    <t>Step Angle</t>
   </si>
 </sst>
 </file>
@@ -127,8 +130,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -185,23 +188,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -211,7 +215,7 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -223,7 +227,7 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -272,16 +276,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="A1:G3"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H3" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A1:H3"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Motor" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" name="Step Angle"/>
     <tableColumn id="2" name="Steps Per Rotation" dataCellStyle="Normal 2"/>
     <tableColumn id="3" name="Pulley Teeth" dataCellStyle="Normal 2"/>
     <tableColumn id="8" name="Gear Ratio"/>
     <tableColumn id="4" name="Pitch" dataCellStyle="Normal 2"/>
     <tableColumn id="6" name="MicroSteps" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" name="Steps per mm" dataDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="7" name="Steps per mm" dataDxfId="4" dataCellStyle="Comma">
       <calculatedColumnFormula>(Table1[MicroSteps]*Table1[Steps Per Rotation]*Table1[[#This Row],[Gear Ratio]])/(Table1[Pulley Teeth]*Table1[Pitch])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -296,16 +301,16 @@
     <tableColumn id="1" name="Tower"/>
     <tableColumn id="2" name="Angle"/>
     <tableColumn id="3" name="Radius"/>
-    <tableColumn id="4" name="X" dataDxfId="4">
+    <tableColumn id="4" name="X" dataDxfId="3">
       <calculatedColumnFormula>Table39159[[#This Row],[Radius]]*COS(RADIANS(Table39159[[#This Row],[Angle]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Y" dataDxfId="3">
+    <tableColumn id="5" name="Y" dataDxfId="2">
       <calculatedColumnFormula>Table39159[[#This Row],[Radius]]*SIN(RADIANS(Table39159[[#This Row],[Angle]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="OppX" dataDxfId="2">
+    <tableColumn id="6" name="OppX" dataDxfId="1">
       <calculatedColumnFormula>-1*Table39159[[#This Row],[X]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="OppY" dataDxfId="1">
+    <tableColumn id="7" name="OppY" dataDxfId="0">
       <calculatedColumnFormula>-1*Table39159[[#This Row],[Y]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -389,6 +394,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -424,6 +446,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -576,92 +615,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.21875" style="1"/>
+    <col min="2" max="2" width="20.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="12.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="C2" s="1">
         <v>200</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>5.18</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>16</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <f>(Table1[MicroSteps]*Table1[Steps Per Rotation]*Table1[[#This Row],[Gear Ratio]])/(Table1[Pulley Teeth]*Table1[Pitch])</f>
         <v>552.5333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
         <v>200</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>20</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>16</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="7">
         <f>(Table1[MicroSteps]*Table1[Steps Per Rotation]*Table1[[#This Row],[Gear Ratio]])/(Table1[Pulley Teeth]*Table1[Pitch])</f>
         <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="I5" s="1">
+        <f>100/120</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J5" s="12">
+        <f>I5*H2</f>
+        <v>460.44444444444446</v>
       </c>
     </row>
   </sheetData>
@@ -681,17 +737,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>20</v>
       </c>
@@ -699,7 +755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -710,7 +766,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -721,7 +777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -734,7 +790,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -745,20 +801,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <f>B3*B4*B5/(PI()*B6)</f>
         <v>407.4366543152521</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <f>C3*C4*C5/(PI()*C6)</f>
         <v>659.53808417281425</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -766,7 +822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -774,7 +830,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -783,11 +839,11 @@
         <v>0.68493150684931503</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <f>C12*C7</f>
         <v>451.73841381699606</v>
       </c>
@@ -805,26 +861,26 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="4"/>
-    <col min="3" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.46484375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -834,20 +890,20 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -857,24 +913,24 @@
       <c r="C4" s="4">
         <v>120</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>Table39159[[#This Row],[Radius]]*COS(RADIANS(Table39159[[#This Row],[Angle]]))</f>
         <v>-103.92304845413263</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f>Table39159[[#This Row],[Radius]]*SIN(RADIANS(Table39159[[#This Row],[Angle]]))</f>
         <v>-60.000000000000014</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>-1*Table39159[[#This Row],[X]]</f>
         <v>103.92304845413263</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f>-1*Table39159[[#This Row],[Y]]</f>
         <v>60.000000000000014</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -884,24 +940,24 @@
       <c r="C5" s="4">
         <v>120</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f>Table39159[[#This Row],[Radius]]*COS(RADIANS(Table39159[[#This Row],[Angle]]))</f>
         <v>103.92304845413261</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <f>Table39159[[#This Row],[Radius]]*SIN(RADIANS(Table39159[[#This Row],[Angle]]))</f>
         <v>-60.000000000000057</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f>-1*Table39159[[#This Row],[X]]</f>
         <v>-103.92304845413261</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f>-1*Table39159[[#This Row],[Y]]</f>
         <v>60.000000000000057</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -911,19 +967,19 @@
       <c r="C6" s="4">
         <v>120</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f>Table39159[[#This Row],[Radius]]*COS(RADIANS(Table39159[[#This Row],[Angle]]))</f>
         <v>7.3508907294517201E-15</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f>Table39159[[#This Row],[Radius]]*SIN(RADIANS(Table39159[[#This Row],[Angle]]))</f>
         <v>120</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f>-1*Table39159[[#This Row],[X]]</f>
         <v>-7.3508907294517201E-15</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f>-1*Table39159[[#This Row],[Y]]</f>
         <v>-120</v>
       </c>

--- a/Stepper Motors.xlsx
+++ b/Stepper Motors.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="InitialHeight">'[1]Measured Offsets'!$B$1</definedName>
     <definedName name="ProbeLength">'[1]Find Delta Radius'!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Motor</t>
   </si>
@@ -122,18 +122,34 @@
   </si>
   <si>
     <t>Step Angle</t>
+  </si>
+  <si>
+    <t>Extruder Adjustment</t>
+  </si>
+  <si>
+    <t>Expected Extruded Length</t>
+  </si>
+  <si>
+    <t>Actual Extruded Length</t>
+  </si>
+  <si>
+    <t>Corrected Steps per mm</t>
+  </si>
+  <si>
+    <t>Attempt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +171,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -181,14 +205,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
@@ -202,13 +251,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Heading 1" xfId="4" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 2 2" xfId="3"/>
@@ -615,31 +677,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.19921875" style="1"/>
+    <col min="1" max="1" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -658,7 +724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -685,7 +751,7 @@
         <v>552.5333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -710,14 +776,77 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I5" s="1">
         <f>100/120</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <f>I5*H2</f>
         <v>460.44444444444446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="15">
+        <f>H2</f>
+        <v>552.5333333333333</v>
+      </c>
+      <c r="C13" s="15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="16">
+        <v>100</v>
+      </c>
+      <c r="C14" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="16">
+        <v>120</v>
+      </c>
+      <c r="C15" s="16">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="18">
+        <f>B13/B15*B14</f>
+        <v>460.4444444444444</v>
+      </c>
+      <c r="C16" s="18">
+        <f>C13/C15*C14</f>
+        <v>446.60194174757282</v>
       </c>
     </row>
   </sheetData>
@@ -737,17 +866,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>20</v>
       </c>
@@ -755,7 +884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -766,7 +895,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -777,7 +906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -790,7 +919,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -801,7 +930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
@@ -814,7 +943,7 @@
         <v>659.53808417281425</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -822,7 +951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -830,7 +959,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -839,7 +968,7 @@
         <v>0.68493150684931503</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -861,26 +990,26 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="4"/>
-    <col min="3" max="4" width="12.46484375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -903,7 +1032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -930,7 +1059,7 @@
         <v>60.000000000000014</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -957,7 +1086,7 @@
         <v>60.000000000000057</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
